--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1410.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1410.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.56875597296391</v>
+        <v>1.203781008720398</v>
       </c>
       <c r="B1">
-        <v>2.196162960720821</v>
+        <v>1.621781587600708</v>
       </c>
       <c r="C1">
-        <v>2.537795775395983</v>
+        <v>6.941516399383545</v>
       </c>
       <c r="D1">
-        <v>2.844963233097475</v>
+        <v>2.213505983352661</v>
       </c>
       <c r="E1">
-        <v>2.731409715754322</v>
+        <v>1.177436232566833</v>
       </c>
     </row>
   </sheetData>
